--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassimmons/Coding/DataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43754E0-E6D3-5245-A44A-484EA4FA56ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8774A5-FDDE-FC4B-9348-96658C87426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="800" windowWidth="28040" windowHeight="17240" xr2:uid="{F55B207E-35C4-3444-B058-2660A76B0BD1}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +543,7 @@
         <v>2480</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">E3*$H$1</f>
+        <f t="shared" ref="F3:G12" si="1">E3*$H$1</f>
         <v>173.60000000000002</v>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>496</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F3:F15" si="2">E13*$H$1</f>
         <v>34.720000000000006</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>527</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.89</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>837</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.59</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F3:F66" si="3">E16*$H$1</f>
         <v>0</v>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -843,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -915,7 +915,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -933,7 +933,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -951,7 +951,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -987,7 +987,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>42</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         <v>43</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>44</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>45</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>46</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
         <v>47</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>48</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         <v>49</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>50</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>51</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>52</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
         <v>53</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>54</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
         <v>55</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>56</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <v>57</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>58</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         <v>59</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>60</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
         <v>61</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>62</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
         <v>63</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>64</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
         <v>65</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F71" si="2">E67*$H$1</f>
+        <f t="shared" ref="F67:F71" si="4">E67*$H$1</f>
         <v>0</v>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
         <v>67</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>68</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
         <v>69</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>70</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
